--- a/biology/Botanique/Physalis/Physalis.xlsx
+++ b/biology/Botanique/Physalis/Physalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lanterne japonaise, Cerise de terre, Coqueret, Pok-Pok
 Physalis (du grec phusalis, vessie, en raison de la forme de son calice) est un genre de plantes de la famille des Solanacées.
-Le genre Physalis comprend de nombreuses espèces voisines que l’on confond souvent. Au jardin, certaines sont cultivées pour la consommation de leurs fruits comme[1] :
+Le genre Physalis comprend de nombreuses espèces voisines que l’on confond souvent. Au jardin, certaines sont cultivées pour la consommation de leurs fruits comme :
 La Cerise de terre (calqué de l'anglais ground cherry) qui appartient à l'espèce Physalis pruinosa ou Physalis pubescens et qui est utilisée au Canada, en particulier au Québec. C'est une plante de taille moyenne, assez sensible au froid, produisant des baies jaunes ou orange.
 Le Groseillier du Cap ou Coqueret du Pérou (Physalis peruviana) qui est une plante plus grande et plus tardive avec des baies plutôt jaunes.
 La Tomatille (Physalis philadelphica ou Physalis ixocarpa), plante plus sensible au froid, avec des baies plus grosses jaune clair ou violettes.
-D’autres Physalis sont appréciés pour leurs qualités ornementales[1]. C’est le cas de l’Alkékenge (hōzuki au Japon ou encore pok-pok à Madagascar)[2] qui est de l'espèce Physalis alkekengi (ou de l'espèce Physalis franchetii) et est reconnaissable à ses petites baies orange à rouge vermillon enfermées dans des cages, moins sensible au froid.
+D’autres Physalis sont appréciés pour leurs qualités ornementales. C’est le cas de l’Alkékenge (hōzuki au Japon ou encore pok-pok à Madagascar) qui est de l'espèce Physalis alkekengi (ou de l'espèce Physalis franchetii) et est reconnaissable à ses petites baies orange à rouge vermillon enfermées dans des cages, moins sensible au froid.
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est naturellement présent en Amérique du Sud (Physalis peruviana proviennent du Pérou, Physalis philadelphica est originaire du Mexique) jusqu'au Canada (Physalis pruinosa et Physalis heterophylla), en Europe, en Afrique et en Extrême-Orient (Physalis franchetii au Japon).
 Certains plants originaires des Amériques aux propriétés décoratives ont été particulièrement diffusés ; ces variétés y portent le nom maracaibo d'Uchula ou mexicain de tomatillo, mais le nom d'une des espèces, alkékenge, date du XVIe siècle et dérive de l'arabe al-kâkanj (lui-même un emprunt au persan, comme tous les termes en -anj ; dénomination populaire : karazu-l-quds, « cerise de Jérusalem »).
@@ -558,7 +572,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre comprend une centaine d'espèces dont :
 Physalis acutifolia (Miers) Sandw.
@@ -618,9 +634,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bien que le NCBI  (16 avr. 2012)[3] ne soit pas une source reconnue pour la nomenclature ou classification taxonomique, les espèces répertoriées sont les suivantes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bien que le NCBI  (16 avr. 2012) ne soit pas une source reconnue pour la nomenclature ou classification taxonomique, les espèces répertoriées sont les suivantes :
 Physalis acutifolia
 Physalis aequata
 Physalis aff. heterophylla MW-2004
@@ -678,7 +696,7 @@
 Physalis virginiana
 Physalis viscosa
 Physalis walteri
-Selon ITIS      (16 avr. 2012)[4] :
+Selon ITIS      (16 avr. 2012) :
 Physalis acutifolia (Miers) Sandw.
 Physalis alkekengi L.
 Physalis angulata L.
@@ -710,7 +728,7 @@
 Physalis virginiana Mill.
 Physalis viscosa L.
 Physalis walteri Nutt.
-Selon Catalogue of Life                                   (16 avr. 2012)[5] :
+Selon Catalogue of Life                                   (16 avr. 2012) :
 Physalis acutifolia
 Physalis alkekengi
 Physalis angulata
@@ -740,7 +758,7 @@
 Physalis virginiana
 Physalis viscosa
 Physalis walteri
-Selon Paleobiology Database                   (16 avr. 2012)[6] :
+Selon Paleobiology Database                   (16 avr. 2012) :
 Physalis grisea
 Physalis pruinosa</t>
         </is>
